--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.692061525743757</v>
+        <v>13.692061514080562</v>
       </c>
       <c r="C2">
-        <v>15.281743746309193</v>
+        <v>15.281743742247563</v>
       </c>
       <c r="D2">
-        <v>13.763870140058495</v>
+        <v>13.763870134631883</v>
       </c>
       <c r="E2">
-        <v>16.189804564363811</v>
+        <v>16.189804556728092</v>
       </c>
       <c r="F2">
-        <v>10.830208037600336</v>
+        <v>10.830208037642475</v>
       </c>
       <c r="G2">
-        <v>13.079886746002762</v>
+        <v>13.079886742517363</v>
       </c>
       <c r="H2">
-        <v>10.729161297231629</v>
+        <v>10.729161287401695</v>
       </c>
       <c r="I2">
-        <v>11.791845265739259</v>
+        <v>11.791845265740386</v>
       </c>
       <c r="J2">
-        <v>15.851076491108998</v>
+        <v>15.851076487713723</v>
       </c>
       <c r="K2">
-        <v>12.107838503598741</v>
+        <v>12.107838500876829</v>
       </c>
       <c r="L2">
-        <v>11.361945234889756</v>
+        <v>11.361945231098604</v>
       </c>
       <c r="M2">
-        <v>13.54667547104294</v>
+        <v>13.54667546511889</v>
       </c>
       <c r="N2">
-        <v>12.614832158485187</v>
+        <v>12.614832155692927</v>
       </c>
       <c r="O2">
-        <v>11.434701131173822</v>
+        <v>11.434701127519407</v>
       </c>
       <c r="P2">
-        <v>13.295558457957599</v>
+        <v>13.295558452450804</v>
       </c>
       <c r="Q2">
-        <v>12.402481305748479</v>
+        <v>12.402481299148068</v>
       </c>
       <c r="R2">
-        <v>11.142360004585891</v>
+        <v>11.142360010331798</v>
       </c>
       <c r="S2">
-        <v>16.578716534416753</v>
+        <v>16.578716539476311</v>
       </c>
       <c r="T2">
-        <v>12.512038721603275</v>
+        <v>12.512038722927244</v>
       </c>
       <c r="U2">
-        <v>14.441847241618296</v>
+        <v>14.441847237262747</v>
       </c>
       <c r="V2">
-        <v>9.6774777124187867</v>
+        <v>9.677477711580762</v>
       </c>
       <c r="W2">
-        <v>9.1754680492247562</v>
+        <v>9.1754680424055426</v>
       </c>
       <c r="X2">
-        <v>13.718828991574746</v>
+        <v>13.718828986721979</v>
       </c>
       <c r="Y2">
-        <v>15.031018274873837</v>
+        <v>15.031018268255034</v>
       </c>
       <c r="Z2">
-        <v>14.375803184019228</v>
+        <v>14.375803179158428</v>
       </c>
       <c r="AA2">
-        <v>16.472181021882797</v>
+        <v>16.472181011939639</v>
       </c>
       <c r="AB2">
-        <v>17.641877014070658</v>
+        <v>17.641876996832124</v>
       </c>
       <c r="AC2">
-        <v>12.897591516608125</v>
+        <v>12.897591516610493</v>
       </c>
       <c r="AD2">
-        <v>17.476629068373988</v>
+        <v>17.476629049065025</v>
       </c>
       <c r="AE2">
-        <v>12.344811012249576</v>
+        <v>12.344811006945688</v>
       </c>
       <c r="AF2">
-        <v>13.72395886968205</v>
+        <v>13.723958862518359</v>
       </c>
       <c r="AG2">
-        <v>11.807390416702081</v>
+        <v>11.807390414586399</v>
       </c>
       <c r="AH2">
-        <v>12.198811937263827</v>
+        <v>12.198811931444778</v>
       </c>
       <c r="AI2">
-        <v>18.358295305091147</v>
+        <v>18.358295294963593</v>
       </c>
       <c r="AJ2">
-        <v>11.943086591350283</v>
+        <v>11.943086586181286</v>
       </c>
       <c r="AK2">
-        <v>12.575623935120795</v>
+        <v>12.575623929284152</v>
       </c>
       <c r="AL2">
-        <v>14.478652417717978</v>
+        <v>14.478652414348012</v>
       </c>
       <c r="AM2">
-        <v>12.914163348134677</v>
+        <v>12.914163338579259</v>
       </c>
       <c r="AN2">
-        <v>12.478975495313438</v>
+        <v>12.478975489976495</v>
       </c>
       <c r="AO2">
-        <v>14.932514184597856</v>
+        <v>14.932514175018726</v>
       </c>
       <c r="AP2">
-        <v>13.240285403542876</v>
+        <v>13.240285397603877</v>
       </c>
       <c r="AQ2">
-        <v>11.303159916702771</v>
+        <v>11.303159915002924</v>
       </c>
       <c r="AR2">
-        <v>16.814060788208614</v>
+        <v>16.814060786532249</v>
       </c>
       <c r="AS2">
-        <v>12.965010653588058</v>
+        <v>12.965010648907228</v>
       </c>
       <c r="AT2">
-        <v>16.511526328776927</v>
+        <v>16.511526321427571</v>
       </c>
       <c r="AU2">
-        <v>11.240223474724049</v>
+        <v>11.240223472503056</v>
       </c>
       <c r="AV2">
-        <v>11.051533302052817</v>
+        <v>11.051533282265909</v>
       </c>
       <c r="AW2">
-        <v>13.394667653269551</v>
+        <v>13.394667646912767</v>
       </c>
       <c r="AX2">
-        <v>16.338849063008436</v>
+        <v>16.338849056119269</v>
       </c>
       <c r="AY2">
-        <v>15.658898594814854</v>
+        <v>15.658898590216236</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.709966771225044</v>
+        <v>14.709966740456821</v>
       </c>
       <c r="C3">
-        <v>13.692770146711492</v>
+        <v>13.692770139771824</v>
       </c>
       <c r="D3">
-        <v>15.516687854183973</v>
+        <v>15.516687832916826</v>
       </c>
       <c r="E3">
-        <v>15.135127002009172</v>
+        <v>15.135126998290833</v>
       </c>
       <c r="F3">
-        <v>10.20961447629341</v>
+        <v>10.2096144697217</v>
       </c>
       <c r="G3">
-        <v>14.129206222370193</v>
+        <v>14.129206215422185</v>
       </c>
       <c r="H3">
-        <v>10.225742467301465</v>
+        <v>10.225742469561039</v>
       </c>
       <c r="I3">
-        <v>12.587218001122155</v>
+        <v>12.587217998452557</v>
       </c>
       <c r="J3">
-        <v>16.919000955998278</v>
+        <v>16.919000945613341</v>
       </c>
       <c r="K3">
-        <v>14.625899180768245</v>
+        <v>14.625899179557145</v>
       </c>
       <c r="L3">
-        <v>12.572208433558158</v>
+        <v>12.572208428079012</v>
       </c>
       <c r="M3">
-        <v>14.100947523400961</v>
+        <v>14.100933373398354</v>
       </c>
       <c r="N3">
-        <v>12.855681704973051</v>
+        <v>12.855681704249111</v>
       </c>
       <c r="O3">
-        <v>9.4608205298200385</v>
+        <v>9.4608205293040442</v>
       </c>
       <c r="P3">
-        <v>14.201488939367831</v>
+        <v>14.20148893088245</v>
       </c>
       <c r="Q3">
-        <v>10.811639319464266</v>
+        <v>10.811639314186706</v>
       </c>
       <c r="R3">
-        <v>9.2517744968434172</v>
+        <v>9.2517744904732471</v>
       </c>
       <c r="S3">
-        <v>15.123279769431941</v>
+        <v>15.123279763236097</v>
       </c>
       <c r="T3">
-        <v>12.893428304809767</v>
+        <v>12.893428299872713</v>
       </c>
       <c r="U3">
-        <v>15.350424624413318</v>
+        <v>15.350424617332536</v>
       </c>
       <c r="V3">
-        <v>10.962447098230925</v>
+        <v>10.962447099631895</v>
       </c>
       <c r="W3">
-        <v>10.839083627295665</v>
+        <v>10.839083617885132</v>
       </c>
       <c r="X3">
-        <v>12.403492594723167</v>
+        <v>12.403492591301898</v>
       </c>
       <c r="Y3">
-        <v>17.43238527818696</v>
+        <v>17.43238526740301</v>
       </c>
       <c r="Z3">
-        <v>15.421240677723272</v>
+        <v>15.421240672340847</v>
       </c>
       <c r="AA3">
-        <v>16.050021601726801</v>
+        <v>16.050021593614151</v>
       </c>
       <c r="AB3">
-        <v>15.891781989601744</v>
+        <v>15.89178198157078</v>
       </c>
       <c r="AC3">
-        <v>15.419763992074071</v>
+        <v>15.419763983116546</v>
       </c>
       <c r="AD3">
-        <v>17.608996438826846</v>
+        <v>17.608996434984579</v>
       </c>
       <c r="AE3">
-        <v>12.619414385292856</v>
+        <v>12.619414379265331</v>
       </c>
       <c r="AF3">
-        <v>14.911686964882993</v>
+        <v>14.911686955461223</v>
       </c>
       <c r="AG3">
-        <v>12.031798217452678</v>
+        <v>12.031798211846137</v>
       </c>
       <c r="AH3">
-        <v>13.904404812636958</v>
+        <v>13.904404806391494</v>
       </c>
       <c r="AI3">
-        <v>21.536588893974919</v>
+        <v>21.536588893782049</v>
       </c>
       <c r="AJ3">
-        <v>13.481492267121158</v>
+        <v>13.481492257630867</v>
       </c>
       <c r="AK3">
-        <v>14.16757797714493</v>
+        <v>14.167577969113539</v>
       </c>
       <c r="AL3">
-        <v>14.059575579862409</v>
+        <v>14.059575574032888</v>
       </c>
       <c r="AM3">
-        <v>14.134549338273651</v>
+        <v>14.134549322159225</v>
       </c>
       <c r="AN3">
-        <v>10.636397096771653</v>
+        <v>10.636397092116368</v>
       </c>
       <c r="AO3">
-        <v>15.602867051734876</v>
+        <v>15.602867036904867</v>
       </c>
       <c r="AP3">
-        <v>11.231357205734021</v>
+        <v>11.231357198019957</v>
       </c>
       <c r="AQ3">
-        <v>10.639199014981028</v>
+        <v>10.639199011236283</v>
       </c>
       <c r="AR3">
-        <v>17.373908067210706</v>
+        <v>17.373908061694848</v>
       </c>
       <c r="AS3">
-        <v>12.026859157998663</v>
+        <v>12.026859154998071</v>
       </c>
       <c r="AT3">
-        <v>15.661416897446037</v>
+        <v>15.661416890396506</v>
       </c>
       <c r="AU3">
-        <v>10.737179961702385</v>
+        <v>10.737179959165646</v>
       </c>
       <c r="AV3">
-        <v>10.821289648751955</v>
+        <v>10.821289637112088</v>
       </c>
       <c r="AW3">
-        <v>13.332896564535748</v>
+        <v>13.3328965565735</v>
       </c>
       <c r="AX3">
-        <v>14.620331077808551</v>
+        <v>14.620331073850878</v>
       </c>
       <c r="AY3">
-        <v>17.401361826685488</v>
+        <v>17.401361819903006</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.692061514080562</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.281743742247563</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>13.763870134631883</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.189804556728092</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.830208037642475</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.079886742517363</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.729161287401695</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.791845265740386</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.851076487713723</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.107838500876829</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.361945231098604</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.54667546511889</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.614832155692927</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.434701127519407</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.295558452450804</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.402481299148068</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>11.142360010331798</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>16.578716539476311</v>
+        <v>15.029564085960221</v>
       </c>
       <c r="T2">
         <v>12.512038722927244</v>
@@ -588,55 +477,55 @@
         <v>14.375803179158428</v>
       </c>
       <c r="AA2">
-        <v>16.472181011939639</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.641876996832124</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>12.897591516610493</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>17.476629049065025</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.344811006945688</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.723958862518359</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.807390414586399</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.198811931444778</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>18.358295294963593</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>11.943086586181286</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.575623929284152</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.478652414348012</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>12.914163338579259</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.478975489976495</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>14.932514175018726</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.240285397603877</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.303159915002924</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>16.814060786532249</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>14.709966740456821</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.692770139771824</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.516687832916826</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.135126998290833</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.2096144697217</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.129206215422185</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.225742469561039</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.587217998452557</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.919000945613341</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.625899179557145</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.572208428079012</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.100933373398354</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.855681704249111</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.4608205293040442</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.20148893088245</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.811639314186706</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.2517744904732471</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.123279763236097</v>
@@ -743,55 +629,55 @@
         <v>15.421240672340847</v>
       </c>
       <c r="AA3">
-        <v>16.050021593614151</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>15.89178198157078</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.419763983116546</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.608996434984579</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.619414379265331</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.911686955461223</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.031798211846137</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>13.904404806391494</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>21.536588893782049</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>13.481492257630867</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.167577969113539</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.059575574032888</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>14.134549322159225</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>10.636397092116368</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>15.602867036904867</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.231357198019957</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.639199011236283</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.373908061694848</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.692061525743757</v>
+        <v>11.434701127519407</v>
       </c>
       <c r="C2">
-        <v>14.756021388093332</v>
+        <v>11.142360010331798</v>
       </c>
       <c r="D2">
-        <v>13.763870140058495</v>
+        <v>12.478975489976495</v>
       </c>
       <c r="E2">
-        <v>16.189804564363811</v>
+        <v>11.303159915002924</v>
       </c>
       <c r="F2">
         <v>10.830208037600336</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.709966771225044</v>
+        <v>10.818102188479116</v>
       </c>
       <c r="C3">
-        <v>13.692770146711492</v>
+        <v>9.2517744904732471</v>
       </c>
       <c r="D3">
-        <v>15.516687854183973</v>
+        <v>10.789385201668139</v>
       </c>
       <c r="E3">
-        <v>15.135127002009172</v>
+        <v>10.937539383034414</v>
       </c>
       <c r="F3">
         <v>10.20961447629341</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.692061525743757</v>
+        <v>12.600043675037883</v>
       </c>
       <c r="C2">
-        <v>14.756021388093332</v>
+        <v>11.862081862994724</v>
       </c>
       <c r="D2">
-        <v>13.763870140058495</v>
+        <v>13.299095352106743</v>
       </c>
       <c r="E2">
-        <v>16.189804564363811</v>
+        <v>12.944287081014441</v>
       </c>
       <c r="F2">
         <v>10.830208037600336</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.709966771225044</v>
+        <v>12.855681704249111</v>
       </c>
       <c r="C3">
-        <v>13.692770146711492</v>
+        <v>10.818102188479116</v>
       </c>
       <c r="D3">
-        <v>15.516687854183973</v>
+        <v>14.134549322159225</v>
       </c>
       <c r="E3">
-        <v>16.325670951911338</v>
+        <v>10.789385201668139</v>
       </c>
       <c r="F3">
         <v>10.20961447629341</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.725223383594848</v>
+      </c>
+      <c r="C2">
+        <v>14.756021372250968</v>
+      </c>
+      <c r="D2">
+        <v>14.399194773090219</v>
+      </c>
+      <c r="E2">
+        <v>16.428767254571003</v>
+      </c>
+      <c r="F2">
+        <v>10.830208037642475</v>
+      </c>
+      <c r="G2">
+        <v>14.034027657484712</v>
+      </c>
+      <c r="H2">
+        <v>10.764953623822015</v>
+      </c>
+      <c r="I2">
+        <v>12.581379212934444</v>
+      </c>
+      <c r="J2">
+        <v>15.877785378850136</v>
+      </c>
+      <c r="K2">
+        <v>12.292379613404849</v>
+      </c>
+      <c r="L2">
+        <v>11.944206810826181</v>
+      </c>
+      <c r="M2">
+        <v>14.94112670485738</v>
+      </c>
+      <c r="N2">
         <v>12.600043675037883</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.862081862994724</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>13.616541414723359</v>
+      </c>
+      <c r="Q2">
+        <v>12.402481299148068</v>
+      </c>
+      <c r="R2">
+        <v>11.142360010331798</v>
+      </c>
+      <c r="T2">
+        <v>11.952977729008545</v>
+      </c>
+      <c r="U2">
+        <v>14.667977054564304</v>
+      </c>
+      <c r="V2">
+        <v>10.931417414572145</v>
+      </c>
+      <c r="W2">
+        <v>9.890976866728165</v>
+      </c>
+      <c r="X2">
+        <v>14.040025454690703</v>
+      </c>
+      <c r="Y2">
+        <v>15.145294209793986</v>
+      </c>
+      <c r="Z2">
+        <v>14.375803179158428</v>
+      </c>
+      <c r="AA2">
+        <v>16.601535200164712</v>
+      </c>
+      <c r="AB2">
+        <v>17.641876996832124</v>
+      </c>
+      <c r="AC2">
+        <v>13.645977058042977</v>
+      </c>
+      <c r="AD2">
+        <v>18.041602444265365</v>
+      </c>
+      <c r="AE2">
+        <v>12.344811006945688</v>
+      </c>
+      <c r="AF2">
+        <v>13.723958862518359</v>
+      </c>
+      <c r="AG2">
+        <v>11.803405773097083</v>
+      </c>
+      <c r="AH2">
+        <v>12.541008370664144</v>
+      </c>
+      <c r="AI2">
+        <v>18.436826342925698</v>
+      </c>
+      <c r="AJ2">
+        <v>12.39901744454232</v>
+      </c>
+      <c r="AK2">
+        <v>12.96828679585893</v>
+      </c>
+      <c r="AL2">
+        <v>14.478652414348012</v>
+      </c>
+      <c r="AM2">
         <v>13.299095352106743</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.944287081014441</v>
       </c>
-      <c r="F2">
-        <v>10.830208037600336</v>
-      </c>
-      <c r="G2">
-        <v>14.034027664556669</v>
-      </c>
-      <c r="H2">
-        <v>10.729161297231629</v>
-      </c>
-      <c r="I2">
-        <v>12.579563618163123</v>
-      </c>
-      <c r="J2">
-        <v>15.851076491108998</v>
-      </c>
-      <c r="K2">
-        <v>12.107838503598741</v>
-      </c>
-      <c r="L2">
-        <v>11.563388071462402</v>
-      </c>
-      <c r="M2">
-        <v>14.941126706536686</v>
-      </c>
-      <c r="N2">
-        <v>12.455450490260549</v>
-      </c>
-      <c r="O2">
-        <v>11.434701131173822</v>
-      </c>
-      <c r="P2">
-        <v>13.61654142349013</v>
-      </c>
-      <c r="Q2">
-        <v>12.402481305748479</v>
-      </c>
-      <c r="R2">
-        <v>11.142360004585891</v>
-      </c>
-      <c r="T2">
-        <v>11.952977727553028</v>
-      </c>
-      <c r="U2">
-        <v>14.441847241618296</v>
-      </c>
-      <c r="V2">
-        <v>10.270879045640953</v>
-      </c>
-      <c r="W2">
-        <v>9.1789914020728158</v>
-      </c>
-      <c r="X2">
-        <v>13.718828991574746</v>
-      </c>
-      <c r="Y2">
-        <v>15.031018274873837</v>
-      </c>
-      <c r="Z2">
-        <v>14.375803184019228</v>
-      </c>
-      <c r="AA2">
-        <v>16.472181021882797</v>
-      </c>
-      <c r="AB2">
-        <v>17.641877014070658</v>
-      </c>
-      <c r="AC2">
-        <v>12.897591516608125</v>
-      </c>
-      <c r="AD2">
-        <v>17.476629068373988</v>
-      </c>
-      <c r="AE2">
-        <v>12.344811012249576</v>
-      </c>
-      <c r="AF2">
-        <v>13.72395886968205</v>
-      </c>
-      <c r="AG2">
-        <v>11.807390416702081</v>
-      </c>
-      <c r="AH2">
-        <v>12.198811937263827</v>
-      </c>
-      <c r="AI2">
-        <v>18.358295305091147</v>
-      </c>
-      <c r="AJ2">
-        <v>11.943086591350283</v>
-      </c>
-      <c r="AK2">
-        <v>12.575623935120795</v>
-      </c>
-      <c r="AL2">
-        <v>14.478652417717978</v>
-      </c>
-      <c r="AM2">
-        <v>12.914163348134677</v>
-      </c>
-      <c r="AN2">
-        <v>12.478975495313438</v>
-      </c>
       <c r="AO2">
-        <v>14.932514184597856</v>
+        <v>14.932514175018726</v>
       </c>
       <c r="AP2">
-        <v>13.666626267093097</v>
+        <v>13.666626259279893</v>
       </c>
       <c r="AQ2">
-        <v>11.303159916702771</v>
+        <v>11.303159915002924</v>
       </c>
       <c r="AR2">
-        <v>16.814060788208614</v>
+        <v>16.827288240512431</v>
       </c>
       <c r="AS2">
-        <v>12.965010653588058</v>
+        <v>12.965010648907228</v>
       </c>
       <c r="AT2">
-        <v>16.511526328776927</v>
+        <v>16.832893617592752</v>
       </c>
       <c r="AU2">
-        <v>10.153339781326345</v>
+        <v>10.387823244548924</v>
       </c>
       <c r="AV2">
-        <v>11.060770209082929</v>
+        <v>12.588151920949425</v>
       </c>
       <c r="AW2">
-        <v>13.394667653269551</v>
+        <v>13.789172551195852</v>
       </c>
       <c r="AX2">
-        <v>16.338849063008436</v>
+        <v>16.502769571176145</v>
       </c>
       <c r="AY2">
-        <v>15.658898594814854</v>
+        <v>15.658898590216236</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.709966740456821</v>
+      </c>
+      <c r="C3">
+        <v>13.85126824816264</v>
+      </c>
+      <c r="D3">
+        <v>15.516687832916826</v>
+      </c>
+      <c r="E3">
+        <v>16.325670943706179</v>
+      </c>
+      <c r="F3">
+        <v>10.35099203470358</v>
+      </c>
+      <c r="G3">
+        <v>14.323010209039854</v>
+      </c>
+      <c r="H3">
+        <v>10.225742469561039</v>
+      </c>
+      <c r="I3">
+        <v>12.587217998452557</v>
+      </c>
+      <c r="J3">
+        <v>16.919000945613341</v>
+      </c>
+      <c r="K3">
+        <v>14.400310975098776</v>
+      </c>
+      <c r="L3">
+        <v>12.572208428079012</v>
+      </c>
+      <c r="M3">
+        <v>13.487261155262379</v>
+      </c>
+      <c r="N3">
         <v>12.855681704249111</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>10.818102188479116</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.345447871461579</v>
+      </c>
+      <c r="Q3">
+        <v>10.899366969283859</v>
+      </c>
+      <c r="R3">
+        <v>9.8468442007241528</v>
+      </c>
+      <c r="S3">
+        <v>15.123279763236097</v>
+      </c>
+      <c r="T3">
+        <v>12.991275939027148</v>
+      </c>
+      <c r="U3">
+        <v>15.350424617332536</v>
+      </c>
+      <c r="V3">
+        <v>11.330257881581799</v>
+      </c>
+      <c r="W3">
+        <v>10.845448509589181</v>
+      </c>
+      <c r="X3">
+        <v>12.403492591301898</v>
+      </c>
+      <c r="Y3">
+        <v>17.43238526740301</v>
+      </c>
+      <c r="Z3">
+        <v>15.47176449878765</v>
+      </c>
+      <c r="AA3">
+        <v>16.050021593614151</v>
+      </c>
+      <c r="AB3">
+        <v>16.358998766723641</v>
+      </c>
+      <c r="AC3">
+        <v>15.419763983116546</v>
+      </c>
+      <c r="AD3">
+        <v>17.608996434984579</v>
+      </c>
+      <c r="AE3">
+        <v>12.861101833991972</v>
+      </c>
+      <c r="AF3">
+        <v>15.13295836063083</v>
+      </c>
+      <c r="AG3">
+        <v>12.031798211846137</v>
+      </c>
+      <c r="AH3">
+        <v>13.904404806391494</v>
+      </c>
+      <c r="AI3">
+        <v>16.588844721300788</v>
+      </c>
+      <c r="AJ3">
+        <v>13.481492257630867</v>
+      </c>
+      <c r="AK3">
+        <v>14.167577969113539</v>
+      </c>
+      <c r="AL3">
+        <v>14.598806369906308</v>
+      </c>
+      <c r="AM3">
         <v>14.134549322159225</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>10.789385201668139</v>
       </c>
-      <c r="F3">
-        <v>10.20961447629341</v>
-      </c>
-      <c r="G3">
-        <v>14.129206222370193</v>
-      </c>
-      <c r="H3">
-        <v>10.225742467301465</v>
-      </c>
-      <c r="I3">
-        <v>12.587218001122155</v>
-      </c>
-      <c r="J3">
-        <v>16.919000955998278</v>
-      </c>
-      <c r="K3">
-        <v>14.400310975618016</v>
-      </c>
-      <c r="L3">
-        <v>12.572208433558158</v>
-      </c>
-      <c r="M3">
-        <v>13.156369343476909</v>
-      </c>
-      <c r="N3">
-        <v>12.855681704973051</v>
-      </c>
-      <c r="O3">
-        <v>10.818102188911309</v>
-      </c>
-      <c r="P3">
-        <v>14.201488939367831</v>
-      </c>
-      <c r="Q3">
-        <v>10.811639319464266</v>
-      </c>
-      <c r="R3">
-        <v>9.2517744968434172</v>
-      </c>
-      <c r="S3">
-        <v>15.123279769431941</v>
-      </c>
-      <c r="T3">
-        <v>12.893428304809767</v>
-      </c>
-      <c r="U3">
-        <v>15.350424624413318</v>
-      </c>
-      <c r="V3">
-        <v>11.330257853523493</v>
-      </c>
-      <c r="W3">
-        <v>10.845448510561146</v>
-      </c>
-      <c r="X3">
-        <v>12.403492594723167</v>
-      </c>
-      <c r="Y3">
-        <v>17.43238527818696</v>
-      </c>
-      <c r="Z3">
-        <v>15.421240677723272</v>
-      </c>
-      <c r="AA3">
-        <v>16.050021601726801</v>
-      </c>
-      <c r="AB3">
-        <v>15.891781989601744</v>
-      </c>
-      <c r="AC3">
-        <v>15.419763992074071</v>
-      </c>
-      <c r="AD3">
-        <v>17.608996438826846</v>
-      </c>
-      <c r="AE3">
-        <v>12.619414385292856</v>
-      </c>
-      <c r="AF3">
-        <v>14.911686964882993</v>
-      </c>
-      <c r="AG3">
-        <v>12.031798217452678</v>
-      </c>
-      <c r="AH3">
-        <v>13.904404812636958</v>
-      </c>
-      <c r="AI3">
-        <v>16.58884473444278</v>
-      </c>
-      <c r="AJ3">
-        <v>13.481492267121158</v>
-      </c>
-      <c r="AK3">
-        <v>14.16757797714493</v>
-      </c>
-      <c r="AL3">
-        <v>14.059575579862409</v>
-      </c>
-      <c r="AM3">
-        <v>14.134549338273651</v>
-      </c>
-      <c r="AN3">
-        <v>10.789385206897245</v>
-      </c>
       <c r="AO3">
-        <v>15.602867051734876</v>
+        <v>15.877167437491362</v>
       </c>
       <c r="AP3">
-        <v>11.231357205734021</v>
+        <v>11.338995285963898</v>
       </c>
       <c r="AQ3">
-        <v>10.937539384963923</v>
+        <v>11.142287735105581</v>
       </c>
       <c r="AR3">
-        <v>17.373908067210706</v>
+        <v>17.373908061694848</v>
       </c>
       <c r="AS3">
-        <v>12.026859157998663</v>
+        <v>12.145082470277467</v>
       </c>
       <c r="AT3">
-        <v>15.661416897446037</v>
+        <v>15.661416890396506</v>
       </c>
       <c r="AU3">
-        <v>10.848791166998669</v>
+        <v>10.848791164501701</v>
       </c>
       <c r="AV3">
-        <v>10.826560336894769</v>
+        <v>10.826560325843451</v>
       </c>
       <c r="AW3">
-        <v>13.332896564535748</v>
+        <v>13.3328965565735</v>
       </c>
       <c r="AX3">
-        <v>14.620331077808551</v>
+        <v>14.620331073850878</v>
       </c>
       <c r="AY3">
-        <v>17.401361826685488</v>
+        <v>17.463448532268725</v>
       </c>
     </row>
   </sheetData>
